--- a/DioDocsExcelTemplatePagenationMode/Template_Pagination.xlsx
+++ b/DioDocsExcelTemplatePagenationMode/Template_Pagination.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuni\Desktop\TemplatePagination_csharp\Resource\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuni\Downloads\DioDocsExcelTemplatePagenationMode-master\DioDocsExcelTemplatePagenationMode-master\DioDocsExcelTemplatePagenationMode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C1EB2D-5812-4E8F-A784-988FFA19E86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28F5ED4-F602-4B3F-9DA0-BD36BEC901F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{D8C1DA2E-CF5B-4A61-8779-F3B39E1F185E}"/>
   </bookViews>
@@ -487,9 +487,36 @@
     <xf numFmtId="5" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="5" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -502,37 +529,10 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="5" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,10 +552,68 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>203835</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="グラフィックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1311B975-234B-A23E-8451-4F8F020ECBCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5621655" y="2320290"/>
+          <a:ext cx="2143125" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -593,7 +651,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -699,7 +757,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -841,7 +899,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -852,7 +910,7 @@
   <dimension ref="B1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="32" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:G19"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.2" x14ac:dyDescent="0.8"/>
@@ -881,12 +939,12 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -895,10 +953,10 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -907,10 +965,10 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -919,12 +977,12 @@
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -933,19 +991,19 @@
       <c r="K5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="26">
         <f ca="1">TODAY()</f>
-        <v>44860</v>
-      </c>
-      <c r="M5" s="17"/>
+        <v>45384</v>
+      </c>
+      <c r="M5" s="26"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -954,10 +1012,10 @@
       <c r="K6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="18"/>
+      <c r="M6" s="27"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
@@ -1101,46 +1159,46 @@
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16" t="s">
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25" t="s">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25" t="s">
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
@@ -1161,38 +1219,38 @@
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
       <c r="H18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26" t="s">
+      <c r="J18" s="21"/>
+      <c r="K18" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="3" t="s">
         <v>11</v>
       </c>
@@ -1209,12 +1267,12 @@
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="3"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
@@ -1225,12 +1283,12 @@
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="3"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
@@ -1241,12 +1299,12 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
       <c r="H22" s="3"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -1257,12 +1315,12 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="3"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
@@ -1273,12 +1331,12 @@
       <c r="O23" s="2"/>
     </row>
     <row r="24" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
       <c r="H24" s="3"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
@@ -1289,12 +1347,12 @@
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
       <c r="H25" s="3"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
@@ -1305,12 +1363,12 @@
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
       <c r="H26" s="3"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
@@ -1321,12 +1379,12 @@
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
       <c r="H27" s="3"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
@@ -1337,12 +1395,12 @@
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
       <c r="H28" s="3"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
@@ -1388,50 +1446,50 @@
     </row>
     <row r="31" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
       <c r="B31" s="2"/>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="21"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="16"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
     </row>
     <row r="32" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
       <c r="B32" s="2"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="21"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="16"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
       <c r="B33" s="2"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="19"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -1472,50 +1530,50 @@
     </row>
     <row r="36" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
       <c r="B36" s="2"/>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="21"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="16"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
     </row>
     <row r="37" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
       <c r="B37" s="2"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="21"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="16"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
     </row>
     <row r="38" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
       <c r="B38" s="2"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="24"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="19"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -1552,20 +1610,21 @@
     <row r="53" ht="16.2" customHeight="1" x14ac:dyDescent="0.8"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="F2:I4"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
     <mergeCell ref="C31:L33"/>
     <mergeCell ref="C36:L38"/>
     <mergeCell ref="B16:E16"/>
@@ -1582,24 +1641,24 @@
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="K22:M22"/>
-    <mergeCell ref="F2:I4"/>
-    <mergeCell ref="B5:E6"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="B26:G26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="84" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>